--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/12_Balıkesir_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/12_Balıkesir_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9302896B-1E42-4535-A717-00824843D72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3631415A-BC38-48C2-8A57-8EE2D39B159D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{76C349B0-81E5-4E4A-9480-0504A4B947CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A0927A8-B7D3-40F7-96B8-4CBD3B745E46}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{6AC0F7C4-CD23-4DD2-8ADF-856F51EE6327}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{978F43A8-88DE-48A0-9312-144D07ACA423}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{4664FF60-581F-4E4B-B2BA-C713AB21E9FA}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{5CC9852B-4427-486E-948B-6E8F64A53A77}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{B83768EF-786D-45F3-AA32-E060011821AC}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{0B7EE4D7-6E56-4C7A-A5B1-15BF42C5D1C4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{CE0746ED-7E78-43E3-90A4-68DF8CE891FF}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{367FB6EF-3455-42A1-BE1C-77802487673D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591987BC-6F42-4FE4-8DCD-0D7B129BBB85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368A7B3C-0079-419A-BBAB-FE3C941C476C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2483,18 +2483,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{218DD1D8-C611-4EF8-AA3F-4C1FBFA32B2A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BDA1B42B-0606-4AF9-B97B-1F8AFBAB8A15}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F64A362F-B14A-4320-85CE-D1C8DC962213}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F0480549-5AF9-4ACA-B048-94F5E1F9C30F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C9D6595B-1A35-4B2B-BFF6-C988758188F5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D78FA4F5-9804-486F-BD44-3D7257A6DB15}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{304D19AE-2B5E-4F33-A984-13D8C4AB60BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1E1ACB34-17EA-469A-B49F-F074768CCA04}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3044DF51-A0BB-419D-B499-2A48FBBFE202}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F006D6DF-1622-4635-8E6A-AFBB66DDF723}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{04924EB6-BE67-4888-BD0F-B1755D1C1ED7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A6B262C4-539D-4E69-A81D-D5829602CC61}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5FCFBDC3-25E0-4358-BECB-54CF241000C4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7C7BE827-241F-4F92-8085-2C46B0D495AC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4A73C0F7-7CE5-48D8-9D90-665BC68AEDC6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2AC4D0EC-BB2E-4DA9-B1CE-BD7A89B1428A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5EACDAF8-AE83-4C4A-AD7D-3F4E6403AC90}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A6A2DF67-2C08-4E5D-8303-28C161A2ED2A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F32E36FB-1ADB-4EE4-93F1-50F56D90D037}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ECA7F216-FAE7-4B65-B2F2-940FF2E0BA3C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C3DD4C15-B761-4557-8003-37D4C8B73315}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6506CCA4-90BB-446A-96C5-5EB1D741D97A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0B394FF5-919C-460F-974C-3836EA1E56BC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{642F4119-A54B-4837-A923-00F2E641A6B8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2507,7 +2507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F65318-271A-4120-8118-F0FB7F6C0CD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FC34C9-6A71-4C6A-ADA8-314D068B21FB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3732,18 +3732,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F0839060-1C92-4128-9C68-F77113DFAEE8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{09C4D6E8-9C60-4CC1-A258-D6AC6114F941}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7AB5E2C2-FF3B-4925-818D-60E9B4166FBD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{65737CDE-2474-4034-8B7A-E8BC21B8A414}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{604E5225-CFFA-4BE4-AC3F-9E0E83BA1BB0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{43FA1479-FC2E-4C37-8C90-ADCA0A01EA5F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E9E85985-DB1F-4C2D-89CB-4FB6679DA7D7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A15033B6-B835-4498-B295-121CF8A3F46B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5C75D866-3BC3-42B6-9C18-CD5F9FDF4312}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{349F9943-D9DC-4F4A-B44D-A515E2892FF7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{ADB7E9DE-B5FA-4137-BD58-E138F874A536}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E26C1BB8-D839-4FB6-941D-A19900D9C5B3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1F18DE91-091F-492A-ADEB-A4809B43224A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3E6EE1FF-3399-4BFF-A667-BAAC83032417}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B591B613-8E60-4685-8ABB-5EB399BFBEA6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{23C1FB9B-0BBA-4499-9A05-C97201731A3E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D60E7B94-B92E-4868-8C29-916854FCE476}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FA9FDCE3-A5A0-4476-AE0C-CBF3A56C4156}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{60BEB48F-1A11-4A59-84A4-5A2E12861E9C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{36D5B3CA-09C1-49AA-BCA3-E7195AE6BE83}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4E1EE081-19AD-4A49-B9A4-896D2DBDE79F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{00520064-C801-42E0-B5F3-8CD040C4B787}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{99197D53-4C02-49DF-AEBB-06EAD0AB83BB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1AE2BDCF-28CE-43ED-8D11-2CB80EF9CEAC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3756,7 +3756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AF867F-264C-4F2F-88E5-B63F2155EF82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3991244-CA8C-4409-8796-04DC2DC07A2C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4973,18 +4973,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{09FADCEE-5FCF-401F-8D0A-A6A2AECDE183}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6A7D08E3-51E4-40C8-96BF-3BEDCA85CAF8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2D3FEB5F-9EEB-45E0-B632-C7E474AA8EEC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A3A020D7-02FE-46FD-9C6E-088D3A4A27ED}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AC7DF8F0-50FF-4CCC-B035-7D24EA43A110}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B0CC5AE9-5FDD-4E5E-9CB0-0EE939E7A365}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{768EAA01-6FE6-4A17-AC24-1479F7282E19}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4182F715-8D2D-4B35-B175-201E156FCE3F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{64E1DED0-399A-481B-8C86-DB69A83BB485}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{918EE957-CCAB-448F-91F4-C547B28FE403}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EB91656C-198D-4AE7-B086-79DB35E191E6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C0A6D33D-23FB-4DDB-91C2-5F7A04FDE1EE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{135E4AB7-BD0A-4C0C-8EEC-0B78F45DF2CD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5EE1D9C8-975D-4299-AAF0-2E8BBDD6D735}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8C713002-7569-42EB-9F18-E980B36F9EFF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6BD91B59-B122-43BF-9215-C356CACBDBC7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2D21333A-115F-4023-A49E-7B366E193C09}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2A787EDD-A691-4982-BA0B-357571F355E3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{480FD74B-133C-46FF-B857-E63E1C5E05BE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BFA9946F-8A8B-4BDC-BB89-98AA376C2F47}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{27360290-8DC4-4FDB-BD7C-F9424BA8EAD2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6000772B-E273-49A1-B5FB-A476AEEA6291}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{98649EF5-84F7-4DA0-9F0C-815F07CB0152}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{99A8C0C6-BB84-40B8-A6D3-D2A40405E54C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4997,7 +4997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB78C32-E210-4350-B3F2-384321E66EFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947C0B13-C0DD-461F-A4E3-A0947DB205E8}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6208,18 +6208,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DCCB94CA-B128-4950-810C-A94E69AF0BFA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{713CF50D-8073-4688-A65E-34C7F3F803C0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{427687A1-1827-49E0-8CC6-384C5007A3FC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{84D6361B-FE7D-425B-B137-63794D28B5A9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{350C4758-4748-4368-A2AD-8C9FF69CAB4D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E94CA3D8-24EE-4999-8927-1EBC19EDA1AD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B990D5DA-BD63-4E40-8498-51AA9EBA5173}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0D9BEFE1-194E-4EC6-9D72-60C1AB5AB2EF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{50E27561-C8E8-4E45-94E3-DBF52E17B002}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E7191F77-E880-4F91-997F-F4E38F8EBFFC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{758ACF2C-2600-4AD3-94F7-E778093524EE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AC7104B7-1FA8-456A-B704-94908A5D9466}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1CE06F39-105A-4329-8AEA-99542C7FC732}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3FDBF769-42C5-4ECD-BEDF-16BE170FE68B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1619C0BC-B164-4CA3-B5DF-BFB1B6AECE54}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8E43A40B-FF87-4F20-BDBA-22BAE38F567D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{538200D3-6525-48BA-8E80-B588025C241A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{22D41222-D760-4215-B4E2-7BE9728E83AC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FC11A7C4-E88C-422B-B558-4AD4C32D6CA4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{82FD31B3-93AA-4C6B-8D57-598C2FF18CD4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3CC7E5D2-DDC9-4696-8BAD-6C6CA6CCBF1E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6745FDBC-F3B3-4081-9DA6-437A61695964}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{85003DBE-1A4E-4FD4-BD4A-56E7724F1080}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{72AC44A7-1F7F-48BF-9C14-3A0EB438F989}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6232,7 +6232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715AB2CB-7089-437A-ABB0-A2A01FF77562}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EEAB60-8DBC-4070-BDFA-26C71378AC1B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7481,18 +7481,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{94D55947-01B7-4727-A594-58F58CBEDBB0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AB55B938-2566-4170-866F-B73DD9A3559E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FC6D3351-F3C2-4EAE-9C29-712D71A8BD66}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B5E3B8CD-40FF-4FF3-88C8-274D33ADBA23}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{92C62112-B0C0-4029-9D89-4EC0945E7DCB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{905F9BC7-E987-49BD-9210-0F21576D8A43}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C9594432-BB50-4986-8116-66E638DF4F6A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E0F838A0-6759-49C2-9967-1FFE4E128C57}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{10193B9A-0FFF-4FF0-AD95-9F510700D36D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D8A37A71-B171-40C4-AB63-27A30D700A0B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C496F18F-A157-48BD-9BD0-E2D41DAC468D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3DFBEB19-F013-4D52-9BBA-F072D8144AE2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2B0BAD73-8386-4E79-A749-09F985E19ED2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C623BB54-083B-4EC1-8C4F-1947A99B65E9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9B6FBC58-5369-4E7C-8CE4-A5A40F82759A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{43E9B851-5D45-4DF0-8CB1-FCEA01F7D790}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7CBB87CA-82CA-4E54-9A53-CFC1BD46D402}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{44B4D562-AEC8-46E3-913F-871FE846F4A9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B8540DB5-3CB8-470E-8CD9-BBCFACD5A0F4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D9212891-1006-42B1-BCD6-30B943CFC22D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6F2EC3FE-35EF-4DB1-8B15-0FCEA57D3290}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E04060BD-D15C-421B-815E-BFB78B602BF9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{ACC715BC-FC7D-4249-BE51-2EE9D5617566}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8B786289-12C6-4F42-9CDE-8C0FC2D953C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7505,7 +7505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0F86FA-FD3F-4E15-8BD4-BD42C5BD22E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C59581-C7AC-444B-8A5E-08596AC70EB6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8750,18 +8750,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{44231912-016C-4F8E-8415-80C0DB8B0212}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C1C88A5B-DCE8-44D8-BB2C-5E18673B2D7A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D54AC4CE-688D-4A08-A203-9436DB487C7A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4BE6B7F3-1A54-4C07-8927-2C71F70EA88B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{47EB4F34-73E5-40FD-A459-C002FD7ED5BF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3FFFCDAF-F78F-4D38-9460-510229103724}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7339695F-D99C-495D-8868-3EA011299DD2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4457F8D3-CFF6-460A-A4BF-DFBB52894517}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9077FCA7-2BCC-40B9-BB1D-EF9B1779EEBC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{78DB3967-9245-44A3-ACE8-649418D05FBA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6B814A67-ED34-4E86-9A83-DC2FD6BEED4E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4D669227-F73B-4C8D-9EF8-5EB697FE66D4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{170FEF96-810D-429C-9CCC-AE74C5F595B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7E31706B-FF8F-4048-B1CE-DE0938CD64C7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{43636E7C-BAED-497C-927E-32086D189D8C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{317CADA0-35DB-4B48-BAE9-470701AE38D9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3A753D4B-DE7D-439E-983A-A3758FCF6707}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{724A9120-78FA-4FE6-96A8-88340AF4E1F6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{33CB0D84-D6FE-46A7-A00D-680351517B33}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C9510EAA-8AAC-4073-8DF7-94E5D6D96FDE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C89AF375-28E7-4718-B671-4EE9574219B5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{97A228C6-9BF0-4CDF-9686-77D59A28B9BE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8C8AF1F5-C32A-4FB8-B2BE-328943D11FD4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{266623F2-BC2C-4496-9ADD-B2145F984375}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8774,7 +8774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C207C9E7-36E4-4BDF-9280-B924B8627FF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4984EBA4-9F17-43FD-952F-04F7A46DBF68}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10019,18 +10019,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5D6E1447-A081-4E5A-82F5-5C94B0417436}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0BAA6FF9-E27E-4FDB-8ED8-F6155D9DEE0A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D1EFADE6-1153-4938-85D4-5709ECC6D19D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2CA33EA6-FA13-425D-98EE-9FA10969C65D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{70DFBD4E-58D1-4D8A-BEDD-1300AF694F04}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{531D7E57-A43A-4A5F-A52F-CFF59446B050}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9102AEEE-95A7-447B-A99D-672644174895}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B40E8A83-88F6-4810-B24E-DC4B4ABECAA6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A85A564A-2A3D-4347-8FA6-3F405D34A76F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EA48BE4F-AFF3-48D2-B1D9-FB7883BA14B5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2087B5C8-832D-45EE-8B71-03F8034736C0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{95BF50D9-2031-40DD-80EC-A41A9CBC6DFD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2C6A19A5-3514-40AA-ABA1-E0FC10F27B4E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{60CA80DD-8384-4E5D-AB99-BC9CF223A60F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{776736E7-2D0A-4490-97BB-F036B3F27E0D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0145D741-04BD-45E1-B8E0-D086085CCEB2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A8701A1C-9228-4DCE-A98B-EC382247FEDF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{95428D69-A523-4B1E-81F1-2F5B22B2CC2E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{24FCC8FA-F2FE-4073-914B-2BD3F7ADC6F4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DF4A91B2-0951-4595-A8A3-E4B2BAA24EB8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BD161425-208A-4328-B526-ED72022691F3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F3BF7E5C-E473-4B71-858A-D491C241DE66}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F2BDFF9E-629D-4285-9057-06D1CCAF2422}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4F414FD7-0412-4F45-9727-1B9AAB28B725}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10043,7 +10043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B43CF4-422F-4E2A-89A7-D057FC4305A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86B16F8-BECF-4582-96D5-EFB2671EB19D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11282,18 +11282,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6EF7A969-5929-4749-A58A-53E89457E5CF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4620A721-A251-495B-A3A6-96C64307FAC6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{59FC216E-1BB1-4893-A210-7FC50DC8111C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0C86F253-0F3C-4E9C-8DF3-767263F8522A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1326B2F2-3BA8-4DE1-B0E8-E47304E4EEBC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5E54AA18-73C2-4FD0-BCAA-FEF1729B26D9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{98369A5C-5D65-4A9E-8D45-2EFA0AD62F68}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3906137F-A19C-4D0B-B2DB-71E9DD983A8D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{56F28043-5689-4820-A81C-3585870D773F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B69656B7-6983-4F8F-B5DA-9FE15B75C7DD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5BADBB19-64A2-4899-93A8-436EBD420CE3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FC08DE8C-3EA1-4F11-A7DA-88ADF016FFE8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0F0746AE-280E-4369-98D0-FB451474F420}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9B5A52F1-EB6B-4C8C-9D46-7D3CFAC7FFF3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{16AB96D4-84AA-4614-9BBB-184591FFCD3E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FEF56077-B0DD-4FBC-A8CA-3DD990F585A5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{42D79207-FBD7-4BE6-9B5D-4BE679ABE9FB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F92C2CFA-DC23-419D-9BEA-14A4FC0707DB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3821A0EA-B21E-4D36-9C91-ABD853083D55}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9CB11DD1-EF32-4606-96BD-E023495B28C9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AEEA5892-4815-44F1-B6E0-36B9931EBA6B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B776AB47-C3AA-46C6-AA78-9DA28FE04314}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F9F4F79B-E9FC-4511-9AC8-843F92CE4ACB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3891B6BD-C440-4CB7-8FBD-53859378E2B7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11306,7 +11306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F36C4D-0562-43DC-9968-24BC2ABBA742}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7FA894-007D-4AF8-8CAC-B6B14B51433F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12545,18 +12545,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BBA7F556-30E3-4F45-9CD7-CC614AA02F51}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7D07B006-EC81-42DD-A005-D2694635C711}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{86C81305-7599-40E3-8BE0-58F4FAE50969}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8C6CC707-E384-4B39-B181-8D67D167F178}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6E3599EB-1FC7-49CA-9D0E-82B052275240}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1DCB6240-DAB3-4CA8-A6D4-98A3BFD12B48}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D1B00561-C048-46EB-A5C0-55C188D65CAC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EDDDCF80-E9A3-4490-9215-8D4BC5B3E247}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F851ECED-E80F-4E36-87AC-9B87D108C055}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C1506A8C-51E8-432A-9676-3EF94844676C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{01486950-1AB7-40B7-8299-B74C38B8943E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{632F2657-6827-49B0-A652-1AB7218F45C5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2B566B93-7DEE-44A7-87D5-C0AE509B845A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F3E6F8AD-8FB8-496F-B4B2-6B89BFEC4246}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1B6DA43A-E7C2-495A-A13B-64A25059543F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F88DBE96-A7B7-4A67-8EED-0A8D22A7C294}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{28F8D261-2731-4F6F-8ADA-B55C68E30A36}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2D364086-69AB-4334-84EA-24ABA7395544}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A575D3E1-8CB4-414F-B0F3-263B2B0E1CF9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{98089F4A-3A68-44ED-ADBB-0500AC2BFE35}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D48CBE9B-5937-4C3D-9946-E64432F58D26}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6DA6A75A-C68D-499A-BF73-D02C6B5FC6B9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FC023F39-6C79-4731-9D1A-698C4203C39C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{36DDC0CB-EB65-496D-AC0A-8259F8D3CD92}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12569,7 +12569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FAC44A-9EFE-47CB-8A74-1348E8CD0602}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF661A0-906C-4E5E-8962-D56FC9DB9BD5}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13804,18 +13804,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B02B1483-A341-483B-8C97-EB9883179896}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{361AAAB1-47C9-4007-A7C3-E22236D6C9CF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CD8DBF01-A662-4C0B-B8D9-DAD5A7D2EC67}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3F7787C9-3DC4-410D-98EA-AF2F13A87ECF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{37746E69-5166-466B-8F80-071CB36457B3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5F7BEE76-7294-4DED-A156-03009A293838}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{387971D3-A3B9-4D3D-9935-14370A6158F7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{77FD6BF2-04D2-4918-B5EA-FFE2036F35CA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E54E6E3E-DF6F-4627-81EA-B7589FE5F82C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{05A4FF9D-2F63-41D8-9545-46ADA403561F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0379C4A5-DCA9-478B-82A1-AFCA1784045E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FDE9D6BF-BF4C-463A-A9AF-7F068E511A05}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{29C91577-7508-4C1C-ABEB-B1BC1A946CFD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EA16E1DE-56F5-4C75-ABFE-1000E2D134DE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{59D971A8-F6B2-4693-BA97-319E6146C604}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C7E737BD-DF42-4B89-AFFD-98095CE0CE12}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{00EAF4B9-DD96-449F-B7E5-4497BAA7F1CE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{AB8B1E60-7B3F-4CE5-B773-39ABA38FA300}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{44B59A8A-D9E8-489D-A676-22DAE1D3464F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3F024264-5E08-44E7-90CC-8B1BEB3C68B0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4A4903D5-CEDF-47D4-94BD-6A1DAE6946D2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D9AE5552-DD4A-4EDF-8943-C0057E6C786A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{656DC769-D494-4C44-AC26-7DCC0FDB5CB3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6404D353-5037-4E5E-8A86-EE4CD0BD9399}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13828,7 +13828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871FE828-60D5-4730-B363-5300B1D26BA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A98D76-5930-437B-B2F0-9661AA5DAF63}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15059,18 +15059,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CBB41B2B-5DFB-4C3B-B9C6-BDD966511114}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C093C048-5494-49AE-89BD-EC43ADEA70AA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CE397BCD-1937-4EAE-B674-AE347EFCEF90}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{762147AF-589A-466E-8533-CC7373BA73C7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9194E13E-BAFD-4552-9452-7D7E21F2524C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EE789C1F-1654-44AD-9C5E-4ECE85431278}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A5BE9643-D551-43CE-8CE0-6838217DE80A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BD552011-7C97-442A-A60D-2F4604292221}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1D63A739-8242-40B5-B907-3EE4067F0158}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6E218F2E-1DE7-4292-867A-3279CB5B9214}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{29DF6FC5-4CB9-49AE-80A4-853F644CCC15}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9EF12B5C-6FCA-4E64-9100-E2156181DB8C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{67938D79-0895-49DC-B120-3B05DCB44309}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DF77E088-A6AA-40AA-8E26-19D32092F44F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0CB2E234-3FE5-4F21-A940-676C59795264}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4B02AB94-5FB5-4C04-B414-3F0A97710D68}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A415BC40-1584-4B3F-94FC-67B585C47F1A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{AE1FA7A3-350F-4A43-986C-A836CB82C14E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1EC500D6-1D2A-43D3-A3E2-890DDE6CFC89}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{13C0A045-F555-43BD-9BD7-388640148018}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F9ECE860-F964-451A-A02A-F9B800C3EE09}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{14C56F59-2090-41F3-8004-E5B0CBC2BAB0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D8196329-0358-44A0-94FD-AEAFAAECCD87}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DC9E7827-FD86-45B4-AC8A-C0311514ED30}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15083,7 +15083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E1F435-7C27-47EF-9CF3-1E36B398EF13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31F83DB-CBC7-45BF-A73E-2EA25FE64D42}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16314,18 +16314,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{46CA6DBE-4822-4379-9ABA-ACDDA9C74FF4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{97E92ADB-3607-46A6-9471-566F96224306}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C5EB14DC-5701-40FE-B4DE-BC13F5643C86}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B713B0F3-1929-4BE6-A3C0-7E37DBDE7BF5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9140ADE5-B765-4CC5-82B3-4F02F1B6F79A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3C09DE8D-4C28-474D-865A-B76F9D3288F5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5F368320-0398-4577-BC11-1E6F5355A293}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AD5B3580-C595-4DE1-9073-F2070EF461C1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{14F75112-8616-487B-B004-4C5F90B0AE44}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{54621536-41ED-4307-8CD4-57B284218163}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EAD4077C-CF05-4681-9D99-E36C64625873}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{12382345-1F13-4A59-9BDC-4A0954D567AC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DB8E454D-28CA-4850-84DB-83859F68F436}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{12A8C571-7FE8-4698-8E5C-FCDB876DD00D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{69472A09-6E3C-4A6C-BAC3-82C64C32EC5A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D20BBE47-C7BA-4E78-969C-0EDBF7E38D02}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{262CA5E0-6F1A-48BA-99B1-105CB63F256D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{288936D0-C22A-4250-B310-0E805871B160}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6B42450C-9F50-419D-A1D3-285AF5E7C3E9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{02DA7BF7-D327-4F3E-B3A1-B3EDBBD89E99}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4171DD05-A234-41E0-8254-F01E507FE67F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6D58E131-CD59-4A1F-B1EF-5E0C3762404D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C316490B-5126-4875-A75D-26C396BD33EF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B134DCD0-C669-4465-A904-AA6C0B0620DE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
